--- a/DesignPlanning/Deliverable1_ProjectFullBOM_20230505.xlsx
+++ b/DesignPlanning/Deliverable1_ProjectFullBOM_20230505.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reesv\Documents\School Stuff\Spring 2023\ME 507\ME-507-Project\Deliverable 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reesv\Documents\School Stuff\Spring 2023\ME 507\Term Project\ME-507-Project\DesignPlanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFA52B6-9DC8-4E73-A0C1-CA6A2285C68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAD2E5F-E7B6-4AD0-AC64-C28CA0829BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Deliverable1_ProjectFullBOM_202" sheetId="1" r:id="rId1"/>
@@ -2240,38 +2240,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" customWidth="1"/>
+    <col min="3" max="3" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="70.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="70.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" customWidth="1"/>
+    <col min="10" max="10" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.81640625" customWidth="1"/>
     <col min="12" max="12" width="6" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" style="7" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.81640625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="8.453125" style="7" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.140625" customWidth="1"/>
-    <col min="19" max="19" width="27.85546875" customWidth="1"/>
+    <col min="18" max="18" width="27.1796875" customWidth="1"/>
+    <col min="19" max="19" width="27.81640625" customWidth="1"/>
     <col min="20" max="20" width="110" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.85546875" customWidth="1"/>
-    <col min="23" max="23" width="10.140625" customWidth="1"/>
+    <col min="22" max="22" width="8.81640625" customWidth="1"/>
+    <col min="23" max="23" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>39</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>52</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>66</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>77</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>90</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>101020341</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>111</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>4865</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>3043</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>137</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>147</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>159</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>412</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>411</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>419</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>174</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>418</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>180</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>185</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>195</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>201</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>207</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>213</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>219</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>228</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>235</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>242</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>250</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>258</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>267</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>276</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>283</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>290</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>298</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>302</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>305</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>309</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>315</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>323</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>328</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>333</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>339</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>346</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>349</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>352</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>355</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>358</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>361</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>364</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>367</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>370</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>375</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>407</v>
       </c>

--- a/DesignPlanning/Deliverable1_ProjectFullBOM_20230505.xlsx
+++ b/DesignPlanning/Deliverable1_ProjectFullBOM_20230505.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reesv\Documents\School Stuff\Spring 2023\ME 507\Term Project\ME-507-Project\DesignPlanning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\germa\Documents\GitHub\ME-507-Project\DesignPlanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAD2E5F-E7B6-4AD0-AC64-C28CA0829BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238CB921-0FA0-4471-898E-42DE629CAD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Deliverable1_ProjectFullBOM_202" sheetId="1" r:id="rId1"/>
@@ -950,9 +950,6 @@
     <t>L2</t>
   </si>
   <si>
-    <t>100uH</t>
-  </si>
-  <si>
     <t>Taiyo Yuden</t>
   </si>
   <si>
@@ -1314,6 +1311,9 @@
   </si>
   <si>
     <t>https://product.tdk.com/system/files/dam/doc/product/capacitor/ceramic/mlcc/catalog/mlcc_automotive_general_en.pdf</t>
+  </si>
+  <si>
+    <t>10uH</t>
   </si>
 </sst>
 </file>
@@ -2241,37 +2241,37 @@
   <dimension ref="A1:W55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" customWidth="1"/>
-    <col min="3" max="3" width="25.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="70.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" customWidth="1"/>
-    <col min="10" max="10" width="26.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.81640625" customWidth="1"/>
+    <col min="6" max="6" width="70.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" customWidth="1"/>
+    <col min="10" max="10" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.77734375" customWidth="1"/>
     <col min="12" max="12" width="6" customWidth="1"/>
-    <col min="13" max="13" width="10.81640625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="8.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" style="7" customWidth="1"/>
+    <col min="14" max="14" width="8.44140625" style="7" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.1796875" customWidth="1"/>
-    <col min="19" max="19" width="27.81640625" customWidth="1"/>
+    <col min="18" max="18" width="27.21875" customWidth="1"/>
+    <col min="19" max="19" width="27.77734375" customWidth="1"/>
     <col min="20" max="20" width="110" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.81640625" customWidth="1"/>
-    <col min="23" max="23" width="10.1796875" customWidth="1"/>
+    <col min="22" max="22" width="8.77734375" customWidth="1"/>
+    <col min="23" max="23" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -2411,7 +2411,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>39</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>52</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>66</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>71</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -2600,7 +2600,7 @@
         <v>74</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="S5" t="s">
         <v>60</v>
@@ -2618,7 +2618,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>77</v>
       </c>
@@ -2687,12 +2687,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D7" t="s">
         <v>91</v>
@@ -2756,7 +2756,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>101020341</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>111</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>4865</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>3043</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>137</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>147</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>159</v>
       </c>
@@ -3235,15 +3235,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B15" t="s">
         <v>160</v>
       </c>
       <c r="C15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D15" t="s">
         <v>162</v>
@@ -3258,16 +3258,16 @@
         <v>164</v>
       </c>
       <c r="H15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I15" t="s">
         <v>28</v>
       </c>
       <c r="J15" t="s">
+        <v>414</v>
+      </c>
+      <c r="K15" t="s">
         <v>415</v>
-      </c>
-      <c r="K15" t="s">
-        <v>416</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -3289,7 +3289,7 @@
         <v>168</v>
       </c>
       <c r="R15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="S15" t="s">
         <v>60</v>
@@ -3307,9 +3307,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B16" t="s">
         <v>160</v>
@@ -3376,9 +3376,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B17" t="s">
         <v>160</v>
@@ -3396,19 +3396,19 @@
         <v>163</v>
       </c>
       <c r="G17" t="s">
+        <v>419</v>
+      </c>
+      <c r="H17" t="s">
         <v>420</v>
-      </c>
-      <c r="H17" t="s">
-        <v>421</v>
       </c>
       <c r="I17" t="s">
         <v>28</v>
       </c>
       <c r="J17" t="s">
+        <v>421</v>
+      </c>
+      <c r="K17" t="s">
         <v>422</v>
-      </c>
-      <c r="K17" t="s">
-        <v>423</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -3430,7 +3430,7 @@
         <v>168</v>
       </c>
       <c r="R17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="S17" t="s">
         <v>60</v>
@@ -3448,7 +3448,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>174</v>
       </c>
@@ -3468,19 +3468,19 @@
         <v>163</v>
       </c>
       <c r="G18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I18" t="s">
         <v>105</v>
       </c>
       <c r="J18" t="s">
+        <v>402</v>
+      </c>
+      <c r="K18" s="5" t="s">
         <v>403</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>404</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -3502,7 +3502,7 @@
         <v>168</v>
       </c>
       <c r="R18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="S18" t="s">
         <v>60</v>
@@ -3517,9 +3517,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B19" t="s">
         <v>160</v>
@@ -3586,7 +3586,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>180</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>185</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>195</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>201</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>207</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>213</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>219</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>228</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>235</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>242</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>250</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="58" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>258</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>267</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>276</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>283</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>290</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>298</v>
       </c>
@@ -4707,19 +4707,19 @@
         <v>301</v>
       </c>
       <c r="G36" t="s">
+        <v>396</v>
+      </c>
+      <c r="H36" t="s">
         <v>397</v>
-      </c>
-      <c r="H36" t="s">
-        <v>398</v>
       </c>
       <c r="I36" t="s">
         <v>105</v>
       </c>
       <c r="J36" t="s">
+        <v>398</v>
+      </c>
+      <c r="K36" t="s">
         <v>399</v>
-      </c>
-      <c r="K36" t="s">
-        <v>400</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -4741,7 +4741,7 @@
         <v>168</v>
       </c>
       <c r="R36" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="S36" t="s">
         <v>60</v>
@@ -4756,7 +4756,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>302</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>160</v>
       </c>
       <c r="C37" t="s">
-        <v>303</v>
+        <v>424</v>
       </c>
       <c r="D37" t="s">
         <v>300</v>
@@ -4776,19 +4776,19 @@
         <v>301</v>
       </c>
       <c r="G37" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H37" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I37" t="s">
         <v>28</v>
       </c>
       <c r="J37" t="s">
+        <v>407</v>
+      </c>
+      <c r="K37" s="5" t="s">
         <v>408</v>
-      </c>
-      <c r="K37" t="s">
-        <v>409</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -4810,7 +4810,7 @@
         <v>168</v>
       </c>
       <c r="R37" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="S37" t="s">
         <v>60</v>
@@ -4825,24 +4825,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s">
         <v>160</v>
       </c>
       <c r="C38" t="s">
+        <v>305</v>
+      </c>
+      <c r="D38" t="s">
         <v>306</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" t="s">
         <v>307</v>
-      </c>
-      <c r="E38" t="s">
-        <v>60</v>
-      </c>
-      <c r="F38" t="s">
-        <v>308</v>
       </c>
       <c r="H38" t="s">
         <v>60</v>
@@ -4885,39 +4885,39 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B39" t="s">
         <v>160</v>
       </c>
       <c r="C39" t="s">
+        <v>309</v>
+      </c>
+      <c r="D39" t="s">
         <v>310</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" t="s">
+        <v>310</v>
+      </c>
+      <c r="G39" t="s">
         <v>311</v>
       </c>
-      <c r="E39" t="s">
-        <v>60</v>
-      </c>
-      <c r="F39" t="s">
-        <v>311</v>
-      </c>
-      <c r="G39" t="s">
-        <v>312</v>
-      </c>
       <c r="H39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I39" t="s">
         <v>105</v>
       </c>
       <c r="J39" t="s">
+        <v>312</v>
+      </c>
+      <c r="K39" t="s">
         <v>313</v>
-      </c>
-      <c r="K39" t="s">
-        <v>314</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -4954,39 +4954,39 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B40" t="s">
         <v>160</v>
       </c>
       <c r="C40" t="s">
+        <v>315</v>
+      </c>
+      <c r="D40" t="s">
         <v>316</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" t="s">
         <v>317</v>
       </c>
-      <c r="E40" t="s">
-        <v>60</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>318</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>319</v>
-      </c>
-      <c r="H40" t="s">
-        <v>320</v>
       </c>
       <c r="I40" t="s">
         <v>105</v>
       </c>
       <c r="J40" t="s">
+        <v>320</v>
+      </c>
+      <c r="K40" t="s">
         <v>321</v>
-      </c>
-      <c r="K40" t="s">
-        <v>322</v>
       </c>
       <c r="L40">
         <v>5</v>
@@ -5023,39 +5023,39 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B41" t="s">
         <v>160</v>
       </c>
       <c r="C41" t="s">
+        <v>323</v>
+      </c>
+      <c r="D41" t="s">
+        <v>316</v>
+      </c>
+      <c r="E41" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" t="s">
+        <v>317</v>
+      </c>
+      <c r="G41" t="s">
+        <v>318</v>
+      </c>
+      <c r="H41" t="s">
         <v>324</v>
-      </c>
-      <c r="D41" t="s">
-        <v>317</v>
-      </c>
-      <c r="E41" t="s">
-        <v>60</v>
-      </c>
-      <c r="F41" t="s">
-        <v>318</v>
-      </c>
-      <c r="G41" t="s">
-        <v>319</v>
-      </c>
-      <c r="H41" t="s">
-        <v>325</v>
       </c>
       <c r="I41" t="s">
         <v>105</v>
       </c>
       <c r="J41" t="s">
+        <v>325</v>
+      </c>
+      <c r="K41" t="s">
         <v>326</v>
-      </c>
-      <c r="K41" t="s">
-        <v>327</v>
       </c>
       <c r="L41">
         <v>1</v>
@@ -5092,39 +5092,39 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B42" t="s">
         <v>160</v>
       </c>
       <c r="C42" t="s">
+        <v>328</v>
+      </c>
+      <c r="D42" t="s">
+        <v>316</v>
+      </c>
+      <c r="E42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" t="s">
+        <v>317</v>
+      </c>
+      <c r="G42" t="s">
+        <v>318</v>
+      </c>
+      <c r="H42" t="s">
         <v>329</v>
-      </c>
-      <c r="D42" t="s">
-        <v>317</v>
-      </c>
-      <c r="E42" t="s">
-        <v>60</v>
-      </c>
-      <c r="F42" t="s">
-        <v>318</v>
-      </c>
-      <c r="G42" t="s">
-        <v>319</v>
-      </c>
-      <c r="H42" t="s">
-        <v>330</v>
       </c>
       <c r="I42" t="s">
         <v>105</v>
       </c>
       <c r="J42" t="s">
+        <v>330</v>
+      </c>
+      <c r="K42" t="s">
         <v>331</v>
-      </c>
-      <c r="K42" t="s">
-        <v>332</v>
       </c>
       <c r="L42">
         <v>3</v>
@@ -5161,39 +5161,39 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B43" t="s">
         <v>160</v>
       </c>
       <c r="C43" t="s">
+        <v>333</v>
+      </c>
+      <c r="D43" t="s">
+        <v>316</v>
+      </c>
+      <c r="E43" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" t="s">
         <v>334</v>
       </c>
-      <c r="D43" t="s">
-        <v>317</v>
-      </c>
-      <c r="E43" t="s">
-        <v>60</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>335</v>
       </c>
-      <c r="G43" t="s">
-        <v>336</v>
-      </c>
       <c r="H43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I43" t="s">
         <v>105</v>
       </c>
       <c r="J43" t="s">
+        <v>336</v>
+      </c>
+      <c r="K43" t="s">
         <v>337</v>
-      </c>
-      <c r="K43" t="s">
-        <v>338</v>
       </c>
       <c r="L43">
         <v>1</v>
@@ -5230,9 +5230,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B44" t="s">
         <v>160</v>
@@ -5241,16 +5241,16 @@
         <v>60</v>
       </c>
       <c r="D44" t="s">
+        <v>339</v>
+      </c>
+      <c r="E44" t="s">
+        <v>339</v>
+      </c>
+      <c r="F44" t="s">
         <v>340</v>
       </c>
-      <c r="E44" t="s">
-        <v>340</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>341</v>
-      </c>
-      <c r="G44" t="s">
-        <v>342</v>
       </c>
       <c r="H44">
         <v>5116</v>
@@ -5259,10 +5259,10 @@
         <v>105</v>
       </c>
       <c r="J44" t="s">
+        <v>342</v>
+      </c>
+      <c r="K44" t="s">
         <v>343</v>
-      </c>
-      <c r="K44" t="s">
-        <v>344</v>
       </c>
       <c r="L44">
         <v>6</v>
@@ -5277,24 +5277,24 @@
         <v>194</v>
       </c>
       <c r="R44" t="s">
+        <v>344</v>
+      </c>
+      <c r="S44" t="s">
+        <v>60</v>
+      </c>
+      <c r="T44" t="s">
+        <v>60</v>
+      </c>
+      <c r="U44" t="s">
+        <v>60</v>
+      </c>
+      <c r="V44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
         <v>345</v>
-      </c>
-      <c r="S44" t="s">
-        <v>60</v>
-      </c>
-      <c r="T44" t="s">
-        <v>60</v>
-      </c>
-      <c r="U44" t="s">
-        <v>60</v>
-      </c>
-      <c r="V44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
-        <v>346</v>
       </c>
       <c r="B45" t="s">
         <v>160</v>
@@ -5303,16 +5303,16 @@
         <v>60</v>
       </c>
       <c r="D45" t="s">
+        <v>339</v>
+      </c>
+      <c r="E45" t="s">
+        <v>339</v>
+      </c>
+      <c r="F45" t="s">
         <v>340</v>
       </c>
-      <c r="E45" t="s">
-        <v>340</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>341</v>
-      </c>
-      <c r="G45" t="s">
-        <v>342</v>
       </c>
       <c r="H45">
         <v>5117</v>
@@ -5321,10 +5321,10 @@
         <v>105</v>
       </c>
       <c r="J45" t="s">
+        <v>346</v>
+      </c>
+      <c r="K45" t="s">
         <v>347</v>
-      </c>
-      <c r="K45" t="s">
-        <v>348</v>
       </c>
       <c r="L45">
         <v>4</v>
@@ -5339,7 +5339,7 @@
         <v>194</v>
       </c>
       <c r="R45" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S45" t="s">
         <v>60</v>
@@ -5354,9 +5354,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B46" t="s">
         <v>160</v>
@@ -5365,16 +5365,16 @@
         <v>60</v>
       </c>
       <c r="D46" t="s">
+        <v>339</v>
+      </c>
+      <c r="E46" t="s">
+        <v>339</v>
+      </c>
+      <c r="F46" t="s">
         <v>340</v>
       </c>
-      <c r="E46" t="s">
-        <v>340</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>341</v>
-      </c>
-      <c r="G46" t="s">
-        <v>342</v>
       </c>
       <c r="H46">
         <v>5119</v>
@@ -5383,10 +5383,10 @@
         <v>105</v>
       </c>
       <c r="J46" t="s">
+        <v>349</v>
+      </c>
+      <c r="K46" t="s">
         <v>350</v>
-      </c>
-      <c r="K46" t="s">
-        <v>351</v>
       </c>
       <c r="L46">
         <v>5</v>
@@ -5401,7 +5401,7 @@
         <v>194</v>
       </c>
       <c r="R46" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S46" t="s">
         <v>60</v>
@@ -5416,9 +5416,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B47" t="s">
         <v>160</v>
@@ -5427,16 +5427,16 @@
         <v>60</v>
       </c>
       <c r="D47" t="s">
+        <v>339</v>
+      </c>
+      <c r="E47" t="s">
+        <v>339</v>
+      </c>
+      <c r="F47" t="s">
         <v>340</v>
       </c>
-      <c r="E47" t="s">
-        <v>340</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>341</v>
-      </c>
-      <c r="G47" t="s">
-        <v>342</v>
       </c>
       <c r="H47">
         <v>5002</v>
@@ -5445,10 +5445,10 @@
         <v>105</v>
       </c>
       <c r="J47" t="s">
+        <v>352</v>
+      </c>
+      <c r="K47" t="s">
         <v>353</v>
-      </c>
-      <c r="K47" t="s">
-        <v>354</v>
       </c>
       <c r="L47">
         <v>2</v>
@@ -5463,7 +5463,7 @@
         <v>194</v>
       </c>
       <c r="R47" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S47" t="s">
         <v>60</v>
@@ -5478,9 +5478,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B48" t="s">
         <v>160</v>
@@ -5489,16 +5489,16 @@
         <v>60</v>
       </c>
       <c r="D48" t="s">
+        <v>339</v>
+      </c>
+      <c r="E48" t="s">
+        <v>339</v>
+      </c>
+      <c r="F48" t="s">
         <v>340</v>
       </c>
-      <c r="E48" t="s">
-        <v>340</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>341</v>
-      </c>
-      <c r="G48" t="s">
-        <v>342</v>
       </c>
       <c r="H48">
         <v>5004</v>
@@ -5507,10 +5507,10 @@
         <v>105</v>
       </c>
       <c r="J48" t="s">
+        <v>355</v>
+      </c>
+      <c r="K48" t="s">
         <v>356</v>
-      </c>
-      <c r="K48" t="s">
-        <v>357</v>
       </c>
       <c r="L48">
         <v>2</v>
@@ -5525,7 +5525,7 @@
         <v>194</v>
       </c>
       <c r="R48" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S48" t="s">
         <v>60</v>
@@ -5540,9 +5540,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B49" t="s">
         <v>160</v>
@@ -5551,16 +5551,16 @@
         <v>60</v>
       </c>
       <c r="D49" t="s">
+        <v>339</v>
+      </c>
+      <c r="E49" t="s">
+        <v>339</v>
+      </c>
+      <c r="F49" t="s">
         <v>340</v>
       </c>
-      <c r="E49" t="s">
-        <v>340</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>341</v>
-      </c>
-      <c r="G49" t="s">
-        <v>342</v>
       </c>
       <c r="H49">
         <v>5003</v>
@@ -5569,10 +5569,10 @@
         <v>105</v>
       </c>
       <c r="J49" t="s">
+        <v>358</v>
+      </c>
+      <c r="K49" t="s">
         <v>359</v>
-      </c>
-      <c r="K49" t="s">
-        <v>360</v>
       </c>
       <c r="L49">
         <v>1</v>
@@ -5587,7 +5587,7 @@
         <v>194</v>
       </c>
       <c r="R49" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S49" t="s">
         <v>60</v>
@@ -5602,9 +5602,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B50" t="s">
         <v>160</v>
@@ -5613,16 +5613,16 @@
         <v>60</v>
       </c>
       <c r="D50" t="s">
+        <v>339</v>
+      </c>
+      <c r="E50" t="s">
+        <v>339</v>
+      </c>
+      <c r="F50" t="s">
         <v>340</v>
       </c>
-      <c r="E50" t="s">
-        <v>340</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>341</v>
-      </c>
-      <c r="G50" t="s">
-        <v>342</v>
       </c>
       <c r="H50">
         <v>5018</v>
@@ -5631,10 +5631,10 @@
         <v>105</v>
       </c>
       <c r="J50" t="s">
+        <v>361</v>
+      </c>
+      <c r="K50" t="s">
         <v>362</v>
-      </c>
-      <c r="K50" t="s">
-        <v>363</v>
       </c>
       <c r="L50">
         <v>6</v>
@@ -5649,7 +5649,7 @@
         <v>194</v>
       </c>
       <c r="R50" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S50" t="s">
         <v>60</v>
@@ -5664,9 +5664,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B51" t="s">
         <v>160</v>
@@ -5675,16 +5675,16 @@
         <v>60</v>
       </c>
       <c r="D51" t="s">
+        <v>339</v>
+      </c>
+      <c r="E51" t="s">
+        <v>339</v>
+      </c>
+      <c r="F51" t="s">
         <v>340</v>
       </c>
-      <c r="E51" t="s">
-        <v>340</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>341</v>
-      </c>
-      <c r="G51" t="s">
-        <v>342</v>
       </c>
       <c r="H51">
         <v>5015</v>
@@ -5693,10 +5693,10 @@
         <v>105</v>
       </c>
       <c r="J51" t="s">
+        <v>364</v>
+      </c>
+      <c r="K51" t="s">
         <v>365</v>
-      </c>
-      <c r="K51" t="s">
-        <v>366</v>
       </c>
       <c r="L51">
         <v>3</v>
@@ -5711,7 +5711,7 @@
         <v>194</v>
       </c>
       <c r="R51" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S51" t="s">
         <v>60</v>
@@ -5726,9 +5726,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B52" t="s">
         <v>160</v>
@@ -5737,16 +5737,16 @@
         <v>60</v>
       </c>
       <c r="D52" t="s">
+        <v>339</v>
+      </c>
+      <c r="E52" t="s">
+        <v>339</v>
+      </c>
+      <c r="F52" t="s">
         <v>340</v>
       </c>
-      <c r="E52" t="s">
-        <v>340</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>341</v>
-      </c>
-      <c r="G52" t="s">
-        <v>342</v>
       </c>
       <c r="H52">
         <v>5001</v>
@@ -5755,10 +5755,10 @@
         <v>105</v>
       </c>
       <c r="J52" t="s">
+        <v>367</v>
+      </c>
+      <c r="K52" t="s">
         <v>368</v>
-      </c>
-      <c r="K52" t="s">
-        <v>369</v>
       </c>
       <c r="L52">
         <v>5</v>
@@ -5773,7 +5773,7 @@
         <v>194</v>
       </c>
       <c r="R52" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S52" t="s">
         <v>60</v>
@@ -5788,24 +5788,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B53" t="s">
         <v>160</v>
       </c>
       <c r="C53" t="s">
+        <v>370</v>
+      </c>
+      <c r="D53" t="s">
         <v>371</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>372</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>373</v>
-      </c>
-      <c r="F53" t="s">
-        <v>374</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -5835,39 +5835,39 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B54" t="s">
         <v>160</v>
       </c>
       <c r="C54" t="s">
+        <v>375</v>
+      </c>
+      <c r="D54" t="s">
         <v>376</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>377</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>378</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>379</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>380</v>
-      </c>
-      <c r="H54" t="s">
-        <v>381</v>
       </c>
       <c r="I54" t="s">
         <v>105</v>
       </c>
       <c r="J54" t="s">
+        <v>381</v>
+      </c>
+      <c r="K54" t="s">
         <v>382</v>
-      </c>
-      <c r="K54" t="s">
-        <v>383</v>
       </c>
       <c r="L54">
         <v>1</v>
@@ -5888,7 +5888,7 @@
         <v>168</v>
       </c>
       <c r="R54" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S54" t="s">
         <v>60</v>
@@ -5897,39 +5897,39 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B55" t="s">
         <v>160</v>
       </c>
       <c r="C55" t="s">
+        <v>387</v>
+      </c>
+      <c r="D55" t="s">
         <v>388</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>389</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>390</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>391</v>
       </c>
-      <c r="G55" t="s">
-        <v>392</v>
-      </c>
       <c r="H55" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I55" t="s">
         <v>28</v>
       </c>
       <c r="J55" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L55">
         <v>3</v>
@@ -5951,7 +5951,7 @@
         <v>168</v>
       </c>
       <c r="R55" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S55" t="s">
         <v>60</v>
@@ -5973,11 +5973,12 @@
     <hyperlink ref="R5" r:id="rId3" xr:uid="{9962DA3D-B288-4FFC-84AD-7E245D632CB8}"/>
     <hyperlink ref="K31" r:id="rId4" xr:uid="{053D531B-9148-411A-A634-ACE84B895D77}"/>
     <hyperlink ref="K18" r:id="rId5" xr:uid="{78C35CAF-EE6A-4218-AF5D-6CA1B3D183E3}"/>
+    <hyperlink ref="K37" r:id="rId6" xr:uid="{39DF72DE-E1D5-4347-AEBB-CFDB92FA2962}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
--- a/DesignPlanning/Deliverable1_ProjectFullBOM_20230505.xlsx
+++ b/DesignPlanning/Deliverable1_ProjectFullBOM_20230505.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\germa\Documents\GitHub\ME-507-Project\DesignPlanning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reesv\Documents\School Stuff\Spring 2023\ME 507\Term Project\ME-507-Project\DesignPlanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238CB921-0FA0-4471-898E-42DE629CAD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721CEA0D-6404-4EC1-8077-69E15EF857CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Deliverable1_ProjectFullBOM_202" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="428">
   <si>
     <t>Name</t>
   </si>
@@ -597,16 +597,10 @@
     <t>CN1,2</t>
   </si>
   <si>
-    <t>B6B-ZR</t>
-  </si>
-  <si>
     <t>JST Connector</t>
   </si>
   <si>
     <t>Connect Peripherals</t>
-  </si>
-  <si>
-    <t>JST connector, 6 pin</t>
   </si>
   <si>
     <t>JST Sales America</t>
@@ -1314,6 +1308,21 @@
   </si>
   <si>
     <t>10uH</t>
+  </si>
+  <si>
+    <t>CN14,15</t>
+  </si>
+  <si>
+    <t>B2B-XH</t>
+  </si>
+  <si>
+    <t>Connect Motor</t>
+  </si>
+  <si>
+    <t>B2B-XH(LF)(SN)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/jst-sales-america-inc./B2B-XH-A(LF)(SN)/1651045?utm_adgroup=Rectangular%20Connectors%20-%20Headers%2C%20Male%20Pins&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Shopping_Product_Connectors%2C%20Interconnects_NEW&amp;utm_term=&amp;utm_content=Rectangular%20Connectors%20-%20Headers%2C%20Male%20Pins&amp;gclid=Cj0KCQjwyLGjBhDKARIsAFRNgW9NynwCgIRd2ZlBe9ljw7YN5Mu4p-TFzS8AKIDIc5Z2cYANq_1dd7EaAtqIEALw_wcB</t>
   </si>
 </sst>
 </file>
@@ -1910,8 +1919,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:W55" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:W55" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:W56" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:W56" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Subassembly"/>
@@ -2238,40 +2247,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W55"/>
+  <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="70.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" customWidth="1"/>
-    <col min="10" max="10" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.77734375" customWidth="1"/>
+    <col min="6" max="6" width="70.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1796875" customWidth="1"/>
+    <col min="10" max="10" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.81640625" customWidth="1"/>
     <col min="12" max="12" width="6" customWidth="1"/>
-    <col min="13" max="13" width="10.77734375" style="7" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.81640625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="8.453125" style="7" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.21875" customWidth="1"/>
-    <col min="19" max="19" width="27.77734375" customWidth="1"/>
+    <col min="18" max="18" width="27.1796875" customWidth="1"/>
+    <col min="19" max="19" width="27.81640625" customWidth="1"/>
     <col min="20" max="20" width="110" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.77734375" customWidth="1"/>
-    <col min="23" max="23" width="10.21875" customWidth="1"/>
+    <col min="22" max="22" width="8.81640625" customWidth="1"/>
+    <col min="23" max="23" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2342,7 +2351,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -2356,7 +2365,7 @@
         <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -2411,7 +2420,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>39</v>
       </c>
@@ -2480,7 +2489,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>52</v>
       </c>
@@ -2549,7 +2558,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>66</v>
       </c>
@@ -2578,7 +2587,7 @@
         <v>71</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -2600,7 +2609,7 @@
         <v>74</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="S5" t="s">
         <v>60</v>
@@ -2618,7 +2627,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>77</v>
       </c>
@@ -2687,12 +2696,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D7" t="s">
         <v>91</v>
@@ -2756,7 +2765,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>101020341</v>
       </c>
@@ -2822,7 +2831,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>111</v>
       </c>
@@ -2891,7 +2900,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>4865</v>
       </c>
@@ -2960,7 +2969,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>3043</v>
       </c>
@@ -3029,7 +3038,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>137</v>
       </c>
@@ -3097,7 +3106,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>147</v>
       </c>
@@ -3166,7 +3175,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>159</v>
       </c>
@@ -3235,15 +3244,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B15" t="s">
         <v>160</v>
       </c>
       <c r="C15" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D15" t="s">
         <v>162</v>
@@ -3258,16 +3267,16 @@
         <v>164</v>
       </c>
       <c r="H15" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I15" t="s">
         <v>28</v>
       </c>
       <c r="J15" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -3289,7 +3298,7 @@
         <v>168</v>
       </c>
       <c r="R15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="S15" t="s">
         <v>60</v>
@@ -3307,9 +3316,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B16" t="s">
         <v>160</v>
@@ -3376,9 +3385,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B17" t="s">
         <v>160</v>
@@ -3396,19 +3405,19 @@
         <v>163</v>
       </c>
       <c r="G17" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H17" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I17" t="s">
         <v>28</v>
       </c>
       <c r="J17" t="s">
-        <v>421</v>
-      </c>
-      <c r="K17" t="s">
-        <v>422</v>
+        <v>419</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>420</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -3430,7 +3439,7 @@
         <v>168</v>
       </c>
       <c r="R17" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="S17" t="s">
         <v>60</v>
@@ -3448,7 +3457,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>174</v>
       </c>
@@ -3468,19 +3477,19 @@
         <v>163</v>
       </c>
       <c r="G18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H18" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I18" t="s">
         <v>105</v>
       </c>
       <c r="J18" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -3502,7 +3511,7 @@
         <v>168</v>
       </c>
       <c r="R18" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="S18" t="s">
         <v>60</v>
@@ -3517,9 +3526,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B19" t="s">
         <v>160</v>
@@ -3586,7 +3595,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>180</v>
       </c>
@@ -3655,7 +3664,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>185</v>
       </c>
@@ -3663,31 +3672,31 @@
         <v>160</v>
       </c>
       <c r="C21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D21" t="s">
         <v>186</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>187</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
+        <v>207</v>
+      </c>
+      <c r="G21" t="s">
         <v>188</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>189</v>
-      </c>
-      <c r="G21" t="s">
-        <v>190</v>
-      </c>
-      <c r="H21" t="s">
-        <v>191</v>
       </c>
       <c r="I21" t="s">
         <v>105</v>
       </c>
       <c r="J21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L21">
         <v>2</v>
@@ -3706,7 +3715,7 @@
         <v>60</v>
       </c>
       <c r="Q21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="R21" t="s">
         <v>169</v>
@@ -3724,39 +3733,39 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B22" t="s">
         <v>160</v>
       </c>
       <c r="C22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" t="s">
+        <v>186</v>
+      </c>
+      <c r="E22" t="s">
+        <v>187</v>
+      </c>
+      <c r="F22" t="s">
+        <v>195</v>
+      </c>
+      <c r="G22" t="s">
+        <v>188</v>
+      </c>
+      <c r="H22" t="s">
         <v>196</v>
-      </c>
-      <c r="D22" t="s">
-        <v>187</v>
-      </c>
-      <c r="E22" t="s">
-        <v>188</v>
-      </c>
-      <c r="F22" t="s">
-        <v>197</v>
-      </c>
-      <c r="G22" t="s">
-        <v>190</v>
-      </c>
-      <c r="H22" t="s">
-        <v>198</v>
       </c>
       <c r="I22" t="s">
         <v>105</v>
       </c>
       <c r="J22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L22">
         <v>2</v>
@@ -3775,7 +3784,7 @@
         <v>60</v>
       </c>
       <c r="Q22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="R22" t="s">
         <v>169</v>
@@ -3793,39 +3802,39 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B23" t="s">
         <v>160</v>
       </c>
       <c r="C23" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" t="s">
+        <v>188</v>
+      </c>
+      <c r="H23" t="s">
         <v>202</v>
-      </c>
-      <c r="D23" t="s">
-        <v>187</v>
-      </c>
-      <c r="E23" t="s">
-        <v>188</v>
-      </c>
-      <c r="F23" t="s">
-        <v>203</v>
-      </c>
-      <c r="G23" t="s">
-        <v>190</v>
-      </c>
-      <c r="H23" t="s">
-        <v>204</v>
       </c>
       <c r="I23" t="s">
         <v>105</v>
       </c>
       <c r="J23" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K23" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L23">
         <v>6</v>
@@ -3844,7 +3853,7 @@
         <v>60</v>
       </c>
       <c r="Q23" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="R23" t="s">
         <v>169</v>
@@ -3862,39 +3871,39 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B24" t="s">
         <v>160</v>
       </c>
       <c r="C24" t="s">
+        <v>206</v>
+      </c>
+      <c r="D24" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" t="s">
+        <v>207</v>
+      </c>
+      <c r="G24" t="s">
+        <v>188</v>
+      </c>
+      <c r="H24" t="s">
         <v>208</v>
-      </c>
-      <c r="D24" t="s">
-        <v>187</v>
-      </c>
-      <c r="E24" t="s">
-        <v>188</v>
-      </c>
-      <c r="F24" t="s">
-        <v>209</v>
-      </c>
-      <c r="G24" t="s">
-        <v>190</v>
-      </c>
-      <c r="H24" t="s">
-        <v>210</v>
       </c>
       <c r="I24" t="s">
         <v>105</v>
       </c>
       <c r="J24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K24" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L24">
         <v>3</v>
@@ -3913,7 +3922,7 @@
         <v>60</v>
       </c>
       <c r="Q24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="R24" t="s">
         <v>169</v>
@@ -3931,39 +3940,39 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B25" t="s">
         <v>160</v>
       </c>
       <c r="C25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D25" t="s">
+        <v>186</v>
+      </c>
+      <c r="E25" t="s">
+        <v>187</v>
+      </c>
+      <c r="F25" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25" t="s">
+        <v>188</v>
+      </c>
+      <c r="H25" t="s">
         <v>214</v>
-      </c>
-      <c r="D25" t="s">
-        <v>187</v>
-      </c>
-      <c r="E25" t="s">
-        <v>188</v>
-      </c>
-      <c r="F25" t="s">
-        <v>215</v>
-      </c>
-      <c r="G25" t="s">
-        <v>190</v>
-      </c>
-      <c r="H25" t="s">
-        <v>216</v>
       </c>
       <c r="I25" t="s">
         <v>105</v>
       </c>
       <c r="J25" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -3982,7 +3991,7 @@
         <v>60</v>
       </c>
       <c r="Q25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="R25" t="s">
         <v>169</v>
@@ -4000,1301 +4009,1271 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>219</v>
+        <v>423</v>
       </c>
       <c r="B26" t="s">
         <v>160</v>
       </c>
       <c r="C26" t="s">
+        <v>424</v>
+      </c>
+      <c r="D26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E26" t="s">
+        <v>425</v>
+      </c>
+      <c r="F26" t="s">
+        <v>195</v>
+      </c>
+      <c r="G26" t="s">
+        <v>188</v>
+      </c>
+      <c r="H26" t="s">
+        <v>426</v>
+      </c>
+      <c r="I26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" t="s">
+        <v>218</v>
+      </c>
+      <c r="D27" t="s">
+        <v>219</v>
+      </c>
+      <c r="E27" t="s">
         <v>220</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F27" t="s">
         <v>221</v>
       </c>
-      <c r="E26" t="s">
+      <c r="G27" t="s">
         <v>222</v>
       </c>
-      <c r="F26" t="s">
+      <c r="H27" t="s">
         <v>223</v>
       </c>
-      <c r="G26" t="s">
+      <c r="I27" t="s">
+        <v>105</v>
+      </c>
+      <c r="J27" t="s">
         <v>224</v>
       </c>
-      <c r="H26" t="s">
+      <c r="K27" t="s">
         <v>225</v>
       </c>
-      <c r="I26" t="s">
-        <v>105</v>
-      </c>
-      <c r="J26" t="s">
-        <v>226</v>
-      </c>
-      <c r="K26" t="s">
-        <v>227</v>
-      </c>
-      <c r="L26">
+      <c r="L27">
         <v>1</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M27" s="7">
         <v>0.56999999999999995</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N27" s="7">
         <f>Table1[[#This Row],[Unit Cost]]*Table1[[#This Row],[Qty]]</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="O26" t="s">
-        <v>60</v>
-      </c>
-      <c r="P26" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q26" t="s">
+      <c r="O27" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q27" t="s">
         <v>168</v>
       </c>
-      <c r="R26" t="s">
+      <c r="R27" t="s">
         <v>169</v>
       </c>
-      <c r="S26" t="s">
-        <v>60</v>
-      </c>
-      <c r="T26" t="s">
-        <v>60</v>
-      </c>
-      <c r="U26" t="s">
-        <v>60</v>
-      </c>
-      <c r="V26" t="s">
+      <c r="S27" t="s">
+        <v>60</v>
+      </c>
+      <c r="T27" t="s">
+        <v>60</v>
+      </c>
+      <c r="U27" t="s">
+        <v>60</v>
+      </c>
+      <c r="V27" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" t="s">
+        <v>227</v>
+      </c>
+      <c r="D28" t="s">
+        <v>219</v>
+      </c>
+      <c r="E28" t="s">
         <v>228</v>
       </c>
-      <c r="B27" t="s">
-        <v>160</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="F28" t="s">
         <v>229</v>
       </c>
-      <c r="D27" t="s">
-        <v>221</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="G28" t="s">
+        <v>222</v>
+      </c>
+      <c r="H28" t="s">
         <v>230</v>
       </c>
-      <c r="F27" t="s">
+      <c r="I28" t="s">
+        <v>105</v>
+      </c>
+      <c r="J28" t="s">
         <v>231</v>
       </c>
-      <c r="G27" t="s">
-        <v>224</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="K28" t="s">
         <v>232</v>
       </c>
-      <c r="I27" t="s">
-        <v>105</v>
-      </c>
-      <c r="J27" t="s">
-        <v>233</v>
-      </c>
-      <c r="K27" t="s">
-        <v>234</v>
-      </c>
-      <c r="L27">
+      <c r="L28">
         <v>1</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M28" s="7">
         <v>0.44</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N28" s="7">
         <f>Table1[[#This Row],[Unit Cost]]*Table1[[#This Row],[Qty]]</f>
         <v>0.44</v>
       </c>
-      <c r="O27" t="s">
-        <v>60</v>
-      </c>
-      <c r="P27" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q27" t="s">
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q28" t="s">
         <v>168</v>
       </c>
-      <c r="R27" t="s">
+      <c r="R28" t="s">
         <v>169</v>
       </c>
-      <c r="S27" t="s">
-        <v>60</v>
-      </c>
-      <c r="T27" t="s">
-        <v>60</v>
-      </c>
-      <c r="U27" t="s">
-        <v>60</v>
-      </c>
-      <c r="V27" t="s">
+      <c r="S28" t="s">
+        <v>60</v>
+      </c>
+      <c r="T28" t="s">
+        <v>60</v>
+      </c>
+      <c r="U28" t="s">
+        <v>60</v>
+      </c>
+      <c r="V28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" t="s">
+        <v>234</v>
+      </c>
+      <c r="D29" t="s">
         <v>235</v>
       </c>
-      <c r="B28" t="s">
-        <v>160</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" t="s">
+        <v>235</v>
+      </c>
+      <c r="G29" t="s">
         <v>236</v>
       </c>
-      <c r="D28" t="s">
+      <c r="H29" t="s">
         <v>237</v>
       </c>
-      <c r="E28" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="I29" t="s">
+        <v>105</v>
+      </c>
+      <c r="J29" t="s">
         <v>238</v>
       </c>
-      <c r="H28" t="s">
+      <c r="K29" t="s">
         <v>239</v>
       </c>
-      <c r="I28" t="s">
-        <v>105</v>
-      </c>
-      <c r="J28" t="s">
-        <v>240</v>
-      </c>
-      <c r="K28" t="s">
-        <v>241</v>
-      </c>
-      <c r="L28">
+      <c r="L29">
         <v>1</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M29" s="7">
         <v>0.37</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N29" s="7">
         <f>Table1[[#This Row],[Unit Cost]]*Table1[[#This Row],[Qty]]</f>
         <v>0.37</v>
       </c>
-      <c r="O28" t="s">
-        <v>60</v>
-      </c>
-      <c r="P28" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q28" t="s">
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q29" t="s">
         <v>168</v>
       </c>
-      <c r="R28" t="s">
+      <c r="R29" t="s">
         <v>169</v>
       </c>
-      <c r="S28" t="s">
-        <v>60</v>
-      </c>
-      <c r="T28" t="s">
-        <v>60</v>
-      </c>
-      <c r="U28" t="s">
-        <v>60</v>
-      </c>
-      <c r="V28" t="s">
+      <c r="S29" t="s">
+        <v>60</v>
+      </c>
+      <c r="T29" t="s">
+        <v>60</v>
+      </c>
+      <c r="U29" t="s">
+        <v>60</v>
+      </c>
+      <c r="V29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" t="s">
+        <v>241</v>
+      </c>
+      <c r="D30" t="s">
         <v>242</v>
       </c>
-      <c r="B29" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="E30" t="s">
         <v>243</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F30" t="s">
         <v>244</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G30" t="s">
+        <v>236</v>
+      </c>
+      <c r="H30" t="s">
         <v>245</v>
       </c>
-      <c r="F29" t="s">
+      <c r="I30" t="s">
+        <v>105</v>
+      </c>
+      <c r="J30" t="s">
         <v>246</v>
       </c>
-      <c r="G29" t="s">
-        <v>238</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="K30" t="s">
         <v>247</v>
       </c>
-      <c r="I29" t="s">
-        <v>105</v>
-      </c>
-      <c r="J29" t="s">
-        <v>248</v>
-      </c>
-      <c r="K29" t="s">
-        <v>249</v>
-      </c>
-      <c r="L29">
+      <c r="L30">
         <v>1</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M30" s="7">
         <v>2.63</v>
       </c>
-      <c r="N29" s="7">
+      <c r="N30" s="7">
         <f>Table1[[#This Row],[Unit Cost]]*Table1[[#This Row],[Qty]]</f>
         <v>2.63</v>
       </c>
-      <c r="O29" t="s">
-        <v>60</v>
-      </c>
-      <c r="P29" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q29" t="s">
+      <c r="O30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q30" t="s">
         <v>168</v>
       </c>
-      <c r="R29" t="s">
+      <c r="R30" t="s">
         <v>169</v>
       </c>
-      <c r="S29" t="s">
-        <v>60</v>
-      </c>
-      <c r="T29" t="s">
-        <v>60</v>
-      </c>
-      <c r="U29" t="s">
-        <v>60</v>
-      </c>
-      <c r="V29" t="s">
+      <c r="S30" t="s">
+        <v>60</v>
+      </c>
+      <c r="T30" t="s">
+        <v>60</v>
+      </c>
+      <c r="U30" t="s">
+        <v>60</v>
+      </c>
+      <c r="V30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" t="s">
+        <v>249</v>
+      </c>
+      <c r="D31" t="s">
         <v>250</v>
       </c>
-      <c r="B30" t="s">
-        <v>160</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="E31" t="s">
         <v>251</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F31" t="s">
         <v>252</v>
       </c>
-      <c r="E30" t="s">
+      <c r="G31" t="s">
+        <v>236</v>
+      </c>
+      <c r="H31" t="s">
         <v>253</v>
       </c>
-      <c r="F30" t="s">
+      <c r="I31" t="s">
+        <v>105</v>
+      </c>
+      <c r="J31" t="s">
         <v>254</v>
       </c>
-      <c r="G30" t="s">
-        <v>238</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="K31" t="s">
         <v>255</v>
       </c>
-      <c r="I30" t="s">
-        <v>105</v>
-      </c>
-      <c r="J30" t="s">
-        <v>256</v>
-      </c>
-      <c r="K30" t="s">
-        <v>257</v>
-      </c>
-      <c r="L30">
+      <c r="L31">
         <v>1</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M31" s="7">
         <v>0.43</v>
       </c>
-      <c r="N30" s="7">
+      <c r="N31" s="7">
         <f>Table1[[#This Row],[Unit Cost]]*Table1[[#This Row],[Qty]]</f>
         <v>0.43</v>
       </c>
-      <c r="P30" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q30" t="s">
+      <c r="P31" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q31" t="s">
         <v>168</v>
       </c>
-      <c r="R30" t="s">
+      <c r="R31" t="s">
         <v>169</v>
       </c>
-      <c r="S30" t="s">
-        <v>60</v>
-      </c>
-      <c r="T30" t="s">
-        <v>60</v>
-      </c>
-      <c r="U30" t="s">
-        <v>60</v>
-      </c>
-      <c r="V30" t="s">
+      <c r="S31" t="s">
+        <v>60</v>
+      </c>
+      <c r="T31" t="s">
+        <v>60</v>
+      </c>
+      <c r="U31" t="s">
+        <v>60</v>
+      </c>
+      <c r="V31" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+    <row r="32" spans="1:23" ht="58" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" t="s">
+        <v>257</v>
+      </c>
+      <c r="D32" t="s">
         <v>258</v>
       </c>
-      <c r="B31" t="s">
-        <v>160</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="E32" t="s">
         <v>259</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F32" t="s">
+        <v>258</v>
+      </c>
+      <c r="G32" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" t="s">
         <v>260</v>
       </c>
-      <c r="E31" t="s">
+      <c r="I32" t="s">
+        <v>105</v>
+      </c>
+      <c r="J32" t="s">
         <v>261</v>
       </c>
-      <c r="F31" t="s">
-        <v>260</v>
-      </c>
-      <c r="G31" t="s">
-        <v>70</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="K32" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="I31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J31" t="s">
-        <v>263</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="L31">
+      <c r="L32">
         <v>3</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M32" s="7">
         <v>2.68</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N32" s="7">
         <f>Table1[[#This Row],[Unit Cost]]*Table1[[#This Row],[Qty]]</f>
         <v>8.0400000000000009</v>
       </c>
-      <c r="O31" t="s">
+      <c r="O32" t="s">
+        <v>263</v>
+      </c>
+      <c r="P32" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>168</v>
+      </c>
+      <c r="R32" t="s">
+        <v>169</v>
+      </c>
+      <c r="S32" t="s">
+        <v>60</v>
+      </c>
+      <c r="T32" t="s">
+        <v>60</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="V32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="P31" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>168</v>
-      </c>
-      <c r="R31" t="s">
-        <v>169</v>
-      </c>
-      <c r="S31" t="s">
-        <v>60</v>
-      </c>
-      <c r="T31" t="s">
-        <v>60</v>
-      </c>
-      <c r="U31" s="1" t="s">
+      <c r="B33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" t="s">
         <v>266</v>
       </c>
-      <c r="V31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="D33" t="s">
         <v>267</v>
       </c>
-      <c r="B32" t="s">
-        <v>160</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="E33" t="s">
         <v>268</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F33" t="s">
         <v>269</v>
       </c>
-      <c r="E32" t="s">
+      <c r="G33" t="s">
         <v>270</v>
       </c>
-      <c r="F32" t="s">
+      <c r="H33" t="s">
         <v>271</v>
       </c>
-      <c r="G32" t="s">
+      <c r="I33" t="s">
+        <v>105</v>
+      </c>
+      <c r="J33" t="s">
         <v>272</v>
       </c>
-      <c r="H32" t="s">
+      <c r="K33" t="s">
         <v>273</v>
       </c>
-      <c r="I32" t="s">
-        <v>105</v>
-      </c>
-      <c r="J32" t="s">
-        <v>274</v>
-      </c>
-      <c r="K32" t="s">
-        <v>275</v>
-      </c>
-      <c r="L32">
+      <c r="L33">
         <v>1</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M33" s="7">
         <v>0.36</v>
       </c>
-      <c r="N32" s="7">
+      <c r="N33" s="7">
         <f>Table1[[#This Row],[Unit Cost]]*Table1[[#This Row],[Qty]]</f>
         <v>0.36</v>
       </c>
-      <c r="O32" t="s">
-        <v>60</v>
-      </c>
-      <c r="P32" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>194</v>
-      </c>
-      <c r="R32" t="s">
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>192</v>
+      </c>
+      <c r="R33" t="s">
         <v>169</v>
       </c>
-      <c r="S32" t="s">
-        <v>60</v>
-      </c>
-      <c r="T32" t="s">
-        <v>60</v>
-      </c>
-      <c r="U32" t="s">
-        <v>60</v>
-      </c>
-      <c r="V32" t="s">
+      <c r="S33" t="s">
+        <v>60</v>
+      </c>
+      <c r="T33" t="s">
+        <v>60</v>
+      </c>
+      <c r="U33" t="s">
+        <v>60</v>
+      </c>
+      <c r="V33" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B34" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" t="s">
+        <v>275</v>
+      </c>
+      <c r="D34" t="s">
+        <v>267</v>
+      </c>
+      <c r="E34" t="s">
         <v>276</v>
       </c>
-      <c r="B33" t="s">
-        <v>160</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="F34" t="s">
         <v>277</v>
       </c>
-      <c r="D33" t="s">
-        <v>269</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="G34" t="s">
+        <v>270</v>
+      </c>
+      <c r="H34" t="s">
         <v>278</v>
       </c>
-      <c r="F33" t="s">
+      <c r="I34" t="s">
+        <v>105</v>
+      </c>
+      <c r="J34" t="s">
         <v>279</v>
       </c>
-      <c r="G33" t="s">
-        <v>272</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="K34" t="s">
         <v>280</v>
       </c>
-      <c r="I33" t="s">
-        <v>105</v>
-      </c>
-      <c r="J33" t="s">
-        <v>281</v>
-      </c>
-      <c r="K33" t="s">
-        <v>282</v>
-      </c>
-      <c r="L33">
+      <c r="L34">
         <v>1</v>
       </c>
-      <c r="M33" s="7">
+      <c r="M34" s="7">
         <v>0.49</v>
       </c>
-      <c r="N33" s="7">
+      <c r="N34" s="7">
         <f>Table1[[#This Row],[Unit Cost]]*Table1[[#This Row],[Qty]]</f>
         <v>0.49</v>
       </c>
-      <c r="O33" t="s">
-        <v>60</v>
-      </c>
-      <c r="P33" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>194</v>
-      </c>
-      <c r="R33" t="s">
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>192</v>
+      </c>
+      <c r="R34" t="s">
         <v>169</v>
       </c>
-      <c r="S33" t="s">
-        <v>60</v>
-      </c>
-      <c r="T33" t="s">
-        <v>60</v>
-      </c>
-      <c r="U33" t="s">
-        <v>60</v>
-      </c>
-      <c r="V33" t="s">
+      <c r="S34" t="s">
+        <v>60</v>
+      </c>
+      <c r="T34" t="s">
+        <v>60</v>
+      </c>
+      <c r="U34" t="s">
+        <v>60</v>
+      </c>
+      <c r="V34" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" t="s">
+        <v>282</v>
+      </c>
+      <c r="D35" t="s">
+        <v>267</v>
+      </c>
+      <c r="E35" t="s">
         <v>283</v>
       </c>
-      <c r="B34" t="s">
-        <v>160</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="F35" t="s">
         <v>284</v>
       </c>
-      <c r="D34" t="s">
-        <v>269</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="G35" t="s">
+        <v>270</v>
+      </c>
+      <c r="H35" t="s">
         <v>285</v>
       </c>
-      <c r="F34" t="s">
+      <c r="I35" t="s">
+        <v>105</v>
+      </c>
+      <c r="J35" t="s">
         <v>286</v>
       </c>
-      <c r="G34" t="s">
-        <v>272</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="K35" t="s">
         <v>287</v>
       </c>
-      <c r="I34" t="s">
-        <v>105</v>
-      </c>
-      <c r="J34" t="s">
-        <v>288</v>
-      </c>
-      <c r="K34" t="s">
-        <v>289</v>
-      </c>
-      <c r="L34">
+      <c r="L35">
         <v>1</v>
       </c>
-      <c r="M34" s="7">
+      <c r="M35" s="7">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N34" s="7">
+      <c r="N35" s="7">
         <f>Table1[[#This Row],[Unit Cost]]*Table1[[#This Row],[Qty]]</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="O34" t="s">
-        <v>60</v>
-      </c>
-      <c r="P34" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>194</v>
-      </c>
-      <c r="R34" t="s">
+      <c r="O35" t="s">
+        <v>60</v>
+      </c>
+      <c r="P35" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>192</v>
+      </c>
+      <c r="R35" t="s">
         <v>169</v>
       </c>
-      <c r="S34" t="s">
-        <v>60</v>
-      </c>
-      <c r="T34" t="s">
-        <v>60</v>
-      </c>
-      <c r="U34" t="s">
-        <v>60</v>
-      </c>
-      <c r="V34" t="s">
+      <c r="S35" t="s">
+        <v>60</v>
+      </c>
+      <c r="T35" t="s">
+        <v>60</v>
+      </c>
+      <c r="U35" t="s">
+        <v>60</v>
+      </c>
+      <c r="V35" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B36" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" t="s">
+        <v>289</v>
+      </c>
+      <c r="D36" t="s">
+        <v>267</v>
+      </c>
+      <c r="E36" t="s">
         <v>290</v>
       </c>
-      <c r="B35" t="s">
-        <v>160</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="F36" t="s">
         <v>291</v>
       </c>
-      <c r="D35" t="s">
-        <v>269</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="G36" t="s">
         <v>292</v>
       </c>
-      <c r="F35" t="s">
+      <c r="H36" t="s">
         <v>293</v>
       </c>
-      <c r="G35" t="s">
+      <c r="I36" t="s">
+        <v>105</v>
+      </c>
+      <c r="J36" t="s">
         <v>294</v>
       </c>
-      <c r="H35" t="s">
+      <c r="K36" t="s">
         <v>295</v>
       </c>
-      <c r="I35" t="s">
-        <v>105</v>
-      </c>
-      <c r="J35" t="s">
-        <v>296</v>
-      </c>
-      <c r="K35" t="s">
-        <v>297</v>
-      </c>
-      <c r="L35">
+      <c r="L36">
         <v>1</v>
       </c>
-      <c r="M35" s="7">
+      <c r="M36" s="7">
         <v>0.1</v>
       </c>
-      <c r="N35" s="7">
+      <c r="N36" s="7">
         <f>Table1[[#This Row],[Unit Cost]]*Table1[[#This Row],[Qty]]</f>
         <v>0.1</v>
       </c>
-      <c r="O35" t="s">
-        <v>60</v>
-      </c>
-      <c r="P35" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>194</v>
-      </c>
-      <c r="R35" t="s">
+      <c r="O36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>192</v>
+      </c>
+      <c r="R36" t="s">
         <v>169</v>
       </c>
-      <c r="S35" t="s">
-        <v>60</v>
-      </c>
-      <c r="T35" t="s">
-        <v>60</v>
-      </c>
-      <c r="U35" t="s">
-        <v>60</v>
-      </c>
-      <c r="V35" t="s">
+      <c r="S36" t="s">
+        <v>60</v>
+      </c>
+      <c r="T36" t="s">
+        <v>60</v>
+      </c>
+      <c r="U36" t="s">
+        <v>60</v>
+      </c>
+      <c r="V36" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" t="s">
+        <v>297</v>
+      </c>
+      <c r="D37" t="s">
         <v>298</v>
       </c>
-      <c r="B36" t="s">
-        <v>160</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="E37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" t="s">
         <v>299</v>
       </c>
-      <c r="D36" t="s">
-        <v>300</v>
-      </c>
-      <c r="E36" t="s">
-        <v>60</v>
-      </c>
-      <c r="F36" t="s">
-        <v>301</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="G37" t="s">
+        <v>394</v>
+      </c>
+      <c r="H37" t="s">
+        <v>395</v>
+      </c>
+      <c r="I37" t="s">
+        <v>105</v>
+      </c>
+      <c r="J37" t="s">
         <v>396</v>
       </c>
-      <c r="H36" t="s">
+      <c r="K37" t="s">
         <v>397</v>
       </c>
-      <c r="I36" t="s">
-        <v>105</v>
-      </c>
-      <c r="J36" t="s">
-        <v>398</v>
-      </c>
-      <c r="K36" t="s">
-        <v>399</v>
-      </c>
-      <c r="L36">
+      <c r="L37">
         <v>1</v>
       </c>
-      <c r="M36" s="7">
+      <c r="M37" s="7">
         <v>1.28</v>
       </c>
-      <c r="N36" s="7">
+      <c r="N37" s="7">
         <f>Table1[[#This Row],[Unit Cost]]*Table1[[#This Row],[Qty]]</f>
         <v>1.28</v>
       </c>
-      <c r="O36" t="s">
-        <v>60</v>
-      </c>
-      <c r="P36" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q36" t="s">
+      <c r="O37" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q37" t="s">
         <v>168</v>
       </c>
-      <c r="R36" t="s">
-        <v>400</v>
-      </c>
-      <c r="S36" t="s">
-        <v>60</v>
-      </c>
-      <c r="T36" t="s">
-        <v>60</v>
-      </c>
-      <c r="U36" t="s">
-        <v>60</v>
-      </c>
-      <c r="V36" t="s">
+      <c r="R37" t="s">
+        <v>398</v>
+      </c>
+      <c r="S37" t="s">
+        <v>60</v>
+      </c>
+      <c r="T37" t="s">
+        <v>60</v>
+      </c>
+      <c r="U37" t="s">
+        <v>60</v>
+      </c>
+      <c r="V37" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B38" t="s">
         <v>160</v>
       </c>
-      <c r="C37" t="s">
-        <v>424</v>
-      </c>
-      <c r="D37" t="s">
-        <v>300</v>
-      </c>
-      <c r="E37" t="s">
-        <v>60</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="C38" t="s">
+        <v>422</v>
+      </c>
+      <c r="D38" t="s">
+        <v>298</v>
+      </c>
+      <c r="E38" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" t="s">
+        <v>299</v>
+      </c>
+      <c r="G38" t="s">
         <v>301</v>
       </c>
-      <c r="G37" t="s">
-        <v>303</v>
-      </c>
-      <c r="H37" t="s">
-        <v>407</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="H38" t="s">
+        <v>405</v>
+      </c>
+      <c r="I38" t="s">
         <v>28</v>
       </c>
-      <c r="J37" t="s">
-        <v>407</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="L37">
+      <c r="J38" t="s">
+        <v>405</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="L38">
         <v>1</v>
       </c>
-      <c r="M37" s="7">
+      <c r="M38" s="7">
         <v>0.13</v>
       </c>
-      <c r="N37" s="7">
+      <c r="N38" s="7">
         <f>Table1[[#This Row],[Unit Cost]]*Table1[[#This Row],[Qty]]</f>
         <v>0.13</v>
       </c>
-      <c r="O37" t="s">
-        <v>60</v>
-      </c>
-      <c r="P37" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q37" t="s">
+      <c r="O38" t="s">
+        <v>60</v>
+      </c>
+      <c r="P38" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q38" t="s">
         <v>168</v>
       </c>
-      <c r="R37" t="s">
-        <v>409</v>
-      </c>
-      <c r="S37" t="s">
-        <v>60</v>
-      </c>
-      <c r="T37" t="s">
-        <v>60</v>
-      </c>
-      <c r="U37" t="s">
-        <v>60</v>
-      </c>
-      <c r="V37" t="s">
+      <c r="R38" t="s">
+        <v>407</v>
+      </c>
+      <c r="S38" t="s">
+        <v>60</v>
+      </c>
+      <c r="T38" t="s">
+        <v>60</v>
+      </c>
+      <c r="U38" t="s">
+        <v>60</v>
+      </c>
+      <c r="V38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B39" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" t="s">
+        <v>303</v>
+      </c>
+      <c r="D39" t="s">
         <v>304</v>
       </c>
-      <c r="B38" t="s">
-        <v>160</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="E39" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" t="s">
         <v>305</v>
       </c>
-      <c r="D38" t="s">
-        <v>306</v>
-      </c>
-      <c r="E38" t="s">
-        <v>60</v>
-      </c>
-      <c r="F38" t="s">
-        <v>307</v>
-      </c>
-      <c r="H38" t="s">
-        <v>60</v>
-      </c>
-      <c r="I38" t="s">
-        <v>60</v>
-      </c>
-      <c r="J38" t="s">
-        <v>60</v>
-      </c>
-      <c r="L38">
+      <c r="H39" t="s">
+        <v>60</v>
+      </c>
+      <c r="I39" t="s">
+        <v>60</v>
+      </c>
+      <c r="J39" t="s">
+        <v>60</v>
+      </c>
+      <c r="L39">
         <v>1</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N39" s="7">
         <f>Table1[[#This Row],[Unit Cost]]*Table1[[#This Row],[Qty]]</f>
         <v>0</v>
       </c>
-      <c r="O38" t="s">
-        <v>60</v>
-      </c>
-      <c r="P38" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q38" t="s">
+      <c r="O39" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q39" t="s">
         <v>168</v>
       </c>
-      <c r="R38" t="s">
+      <c r="R39" t="s">
         <v>169</v>
       </c>
-      <c r="S38" t="s">
-        <v>60</v>
-      </c>
-      <c r="T38" t="s">
-        <v>60</v>
-      </c>
-      <c r="U38" t="s">
-        <v>60</v>
-      </c>
-      <c r="V38" t="s">
+      <c r="S39" t="s">
+        <v>60</v>
+      </c>
+      <c r="T39" t="s">
+        <v>60</v>
+      </c>
+      <c r="U39" t="s">
+        <v>60</v>
+      </c>
+      <c r="V39" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" t="s">
+        <v>307</v>
+      </c>
+      <c r="D40" t="s">
         <v>308</v>
       </c>
-      <c r="B39" t="s">
-        <v>160</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="E40" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" t="s">
+        <v>308</v>
+      </c>
+      <c r="G40" t="s">
         <v>309</v>
       </c>
-      <c r="D39" t="s">
+      <c r="H40" t="s">
+        <v>307</v>
+      </c>
+      <c r="I40" t="s">
+        <v>105</v>
+      </c>
+      <c r="J40" t="s">
         <v>310</v>
       </c>
-      <c r="E39" t="s">
-        <v>60</v>
-      </c>
-      <c r="F39" t="s">
-        <v>310</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="K40" t="s">
         <v>311</v>
       </c>
-      <c r="H39" t="s">
-        <v>309</v>
-      </c>
-      <c r="I39" t="s">
-        <v>105</v>
-      </c>
-      <c r="J39" t="s">
-        <v>312</v>
-      </c>
-      <c r="K39" t="s">
-        <v>313</v>
-      </c>
-      <c r="L39">
+      <c r="L40">
         <v>1</v>
       </c>
-      <c r="M39" s="7">
+      <c r="M40" s="7">
         <v>1.38</v>
       </c>
-      <c r="N39" s="7">
+      <c r="N40" s="7">
         <f>Table1[[#This Row],[Unit Cost]]*Table1[[#This Row],[Qty]]</f>
         <v>1.38</v>
       </c>
-      <c r="O39" t="s">
-        <v>60</v>
-      </c>
-      <c r="P39" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q39" t="s">
+      <c r="O40" t="s">
+        <v>60</v>
+      </c>
+      <c r="P40" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q40" t="s">
         <v>168</v>
       </c>
-      <c r="R39" t="s">
+      <c r="R40" t="s">
         <v>169</v>
       </c>
-      <c r="S39" t="s">
-        <v>60</v>
-      </c>
-      <c r="T39" t="s">
-        <v>60</v>
-      </c>
-      <c r="U39" t="s">
-        <v>60</v>
-      </c>
-      <c r="V39" t="s">
+      <c r="S40" t="s">
+        <v>60</v>
+      </c>
+      <c r="T40" t="s">
+        <v>60</v>
+      </c>
+      <c r="U40" t="s">
+        <v>60</v>
+      </c>
+      <c r="V40" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B41" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" t="s">
+        <v>313</v>
+      </c>
+      <c r="D41" t="s">
         <v>314</v>
       </c>
-      <c r="B40" t="s">
-        <v>160</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="E41" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" t="s">
         <v>315</v>
       </c>
-      <c r="D40" t="s">
+      <c r="G41" t="s">
         <v>316</v>
       </c>
-      <c r="E40" t="s">
-        <v>60</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="H41" t="s">
         <v>317</v>
       </c>
-      <c r="G40" t="s">
+      <c r="I41" t="s">
+        <v>105</v>
+      </c>
+      <c r="J41" t="s">
         <v>318</v>
       </c>
-      <c r="H40" t="s">
+      <c r="K41" t="s">
         <v>319</v>
       </c>
-      <c r="I40" t="s">
-        <v>105</v>
-      </c>
-      <c r="J40" t="s">
-        <v>320</v>
-      </c>
-      <c r="K40" t="s">
-        <v>321</v>
-      </c>
-      <c r="L40">
+      <c r="L41">
         <v>5</v>
       </c>
-      <c r="M40" s="7">
+      <c r="M41" s="7">
         <v>0.2</v>
       </c>
-      <c r="N40" s="7">
+      <c r="N41" s="7">
         <f>Table1[[#This Row],[Unit Cost]]*Table1[[#This Row],[Qty]]</f>
         <v>1</v>
       </c>
-      <c r="O40" t="s">
-        <v>60</v>
-      </c>
-      <c r="P40" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q40" t="s">
+      <c r="O41" t="s">
+        <v>60</v>
+      </c>
+      <c r="P41" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q41" t="s">
         <v>168</v>
       </c>
-      <c r="R40" t="s">
+      <c r="R41" t="s">
         <v>169</v>
       </c>
-      <c r="S40" t="s">
-        <v>60</v>
-      </c>
-      <c r="T40" t="s">
-        <v>60</v>
-      </c>
-      <c r="U40" t="s">
-        <v>60</v>
-      </c>
-      <c r="V40" t="s">
+      <c r="S41" t="s">
+        <v>60</v>
+      </c>
+      <c r="T41" t="s">
+        <v>60</v>
+      </c>
+      <c r="U41" t="s">
+        <v>60</v>
+      </c>
+      <c r="V41" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B42" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" t="s">
+        <v>321</v>
+      </c>
+      <c r="D42" t="s">
+        <v>314</v>
+      </c>
+      <c r="E42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" t="s">
+        <v>315</v>
+      </c>
+      <c r="G42" t="s">
+        <v>316</v>
+      </c>
+      <c r="H42" t="s">
         <v>322</v>
       </c>
-      <c r="B41" t="s">
-        <v>160</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="I42" t="s">
+        <v>105</v>
+      </c>
+      <c r="J42" t="s">
         <v>323</v>
       </c>
-      <c r="D41" t="s">
-        <v>316</v>
-      </c>
-      <c r="E41" t="s">
-        <v>60</v>
-      </c>
-      <c r="F41" t="s">
-        <v>317</v>
-      </c>
-      <c r="G41" t="s">
-        <v>318</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="K42" t="s">
         <v>324</v>
       </c>
-      <c r="I41" t="s">
-        <v>105</v>
-      </c>
-      <c r="J41" t="s">
-        <v>325</v>
-      </c>
-      <c r="K41" t="s">
-        <v>326</v>
-      </c>
-      <c r="L41">
+      <c r="L42">
         <v>1</v>
       </c>
-      <c r="M41" s="7">
+      <c r="M42" s="7">
         <v>0.2</v>
       </c>
-      <c r="N41" s="7">
+      <c r="N42" s="7">
         <f>Table1[[#This Row],[Unit Cost]]*Table1[[#This Row],[Qty]]</f>
         <v>0.2</v>
       </c>
-      <c r="O41" t="s">
-        <v>60</v>
-      </c>
-      <c r="P41" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q41" t="s">
+      <c r="O42" t="s">
+        <v>60</v>
+      </c>
+      <c r="P42" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q42" t="s">
         <v>168</v>
       </c>
-      <c r="R41" t="s">
+      <c r="R42" t="s">
         <v>169</v>
       </c>
-      <c r="S41" t="s">
-        <v>60</v>
-      </c>
-      <c r="T41" t="s">
-        <v>60</v>
-      </c>
-      <c r="U41" t="s">
-        <v>60</v>
-      </c>
-      <c r="V41" t="s">
+      <c r="S42" t="s">
+        <v>60</v>
+      </c>
+      <c r="T42" t="s">
+        <v>60</v>
+      </c>
+      <c r="U42" t="s">
+        <v>60</v>
+      </c>
+      <c r="V42" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" t="s">
+        <v>326</v>
+      </c>
+      <c r="D43" t="s">
+        <v>314</v>
+      </c>
+      <c r="E43" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" t="s">
+        <v>315</v>
+      </c>
+      <c r="G43" t="s">
+        <v>316</v>
+      </c>
+      <c r="H43" t="s">
         <v>327</v>
       </c>
-      <c r="B42" t="s">
-        <v>160</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="I43" t="s">
+        <v>105</v>
+      </c>
+      <c r="J43" t="s">
         <v>328</v>
       </c>
-      <c r="D42" t="s">
-        <v>316</v>
-      </c>
-      <c r="E42" t="s">
-        <v>60</v>
-      </c>
-      <c r="F42" t="s">
-        <v>317</v>
-      </c>
-      <c r="G42" t="s">
-        <v>318</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="K43" t="s">
         <v>329</v>
       </c>
-      <c r="I42" t="s">
-        <v>105</v>
-      </c>
-      <c r="J42" t="s">
-        <v>330</v>
-      </c>
-      <c r="K42" t="s">
-        <v>331</v>
-      </c>
-      <c r="L42">
+      <c r="L43">
         <v>3</v>
       </c>
-      <c r="M42" s="7">
+      <c r="M43" s="7">
         <v>0.12</v>
       </c>
-      <c r="N42" s="7">
+      <c r="N43" s="7">
         <f>Table1[[#This Row],[Unit Cost]]*Table1[[#This Row],[Qty]]</f>
         <v>0.36</v>
       </c>
-      <c r="O42" t="s">
-        <v>60</v>
-      </c>
-      <c r="P42" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q42" t="s">
+      <c r="O43" t="s">
+        <v>60</v>
+      </c>
+      <c r="P43" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q43" t="s">
         <v>168</v>
       </c>
-      <c r="R42" t="s">
+      <c r="R43" t="s">
         <v>169</v>
       </c>
-      <c r="S42" t="s">
-        <v>60</v>
-      </c>
-      <c r="T42" t="s">
-        <v>60</v>
-      </c>
-      <c r="U42" t="s">
-        <v>60</v>
-      </c>
-      <c r="V42" t="s">
+      <c r="S43" t="s">
+        <v>60</v>
+      </c>
+      <c r="T43" t="s">
+        <v>60</v>
+      </c>
+      <c r="U43" t="s">
+        <v>60</v>
+      </c>
+      <c r="V43" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B44" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" t="s">
+        <v>331</v>
+      </c>
+      <c r="D44" t="s">
+        <v>314</v>
+      </c>
+      <c r="E44" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44" t="s">
         <v>332</v>
       </c>
-      <c r="B43" t="s">
-        <v>160</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="G44" t="s">
         <v>333</v>
       </c>
-      <c r="D43" t="s">
-        <v>316</v>
-      </c>
-      <c r="E43" t="s">
-        <v>60</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="H44" t="s">
+        <v>331</v>
+      </c>
+      <c r="I44" t="s">
+        <v>105</v>
+      </c>
+      <c r="J44" t="s">
         <v>334</v>
       </c>
-      <c r="G43" t="s">
+      <c r="K44" t="s">
         <v>335</v>
       </c>
-      <c r="H43" t="s">
-        <v>333</v>
-      </c>
-      <c r="I43" t="s">
-        <v>105</v>
-      </c>
-      <c r="J43" t="s">
-        <v>336</v>
-      </c>
-      <c r="K43" t="s">
-        <v>337</v>
-      </c>
-      <c r="L43">
+      <c r="L44">
         <v>1</v>
       </c>
-      <c r="M43" s="7">
+      <c r="M44" s="7">
         <v>1.02</v>
       </c>
-      <c r="N43" s="7">
+      <c r="N44" s="7">
         <f>Table1[[#This Row],[Unit Cost]]*Table1[[#This Row],[Qty]]</f>
         <v>1.02</v>
       </c>
-      <c r="O43" t="s">
-        <v>60</v>
-      </c>
-      <c r="P43" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q43" t="s">
+      <c r="O44" t="s">
+        <v>60</v>
+      </c>
+      <c r="P44" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q44" t="s">
         <v>168</v>
       </c>
-      <c r="R43" t="s">
+      <c r="R44" t="s">
         <v>169</v>
       </c>
-      <c r="S43" t="s">
-        <v>60</v>
-      </c>
-      <c r="T43" t="s">
-        <v>60</v>
-      </c>
-      <c r="U43" t="s">
-        <v>60</v>
-      </c>
-      <c r="V43" t="s">
+      <c r="S44" t="s">
+        <v>60</v>
+      </c>
+      <c r="T44" t="s">
+        <v>60</v>
+      </c>
+      <c r="U44" t="s">
+        <v>60</v>
+      </c>
+      <c r="V44" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="B44" t="s">
-        <v>160</v>
-      </c>
-      <c r="C44" t="s">
-        <v>60</v>
-      </c>
-      <c r="D44" t="s">
-        <v>339</v>
-      </c>
-      <c r="E44" t="s">
-        <v>339</v>
-      </c>
-      <c r="F44" t="s">
-        <v>340</v>
-      </c>
-      <c r="G44" t="s">
-        <v>341</v>
-      </c>
-      <c r="H44">
-        <v>5116</v>
-      </c>
-      <c r="I44" t="s">
-        <v>105</v>
-      </c>
-      <c r="J44" t="s">
-        <v>342</v>
-      </c>
-      <c r="K44" t="s">
-        <v>343</v>
-      </c>
-      <c r="L44">
-        <v>6</v>
-      </c>
-      <c r="O44" t="s">
-        <v>60</v>
-      </c>
-      <c r="P44" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>194</v>
-      </c>
-      <c r="R44" t="s">
-        <v>344</v>
-      </c>
-      <c r="S44" t="s">
-        <v>60</v>
-      </c>
-      <c r="T44" t="s">
-        <v>60</v>
-      </c>
-      <c r="U44" t="s">
-        <v>60</v>
-      </c>
-      <c r="V44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B45" t="s">
         <v>160</v>
@@ -5303,31 +5282,31 @@
         <v>60</v>
       </c>
       <c r="D45" t="s">
+        <v>337</v>
+      </c>
+      <c r="E45" t="s">
+        <v>337</v>
+      </c>
+      <c r="F45" t="s">
+        <v>338</v>
+      </c>
+      <c r="G45" t="s">
         <v>339</v>
       </c>
-      <c r="E45" t="s">
-        <v>339</v>
-      </c>
-      <c r="F45" t="s">
-        <v>340</v>
-      </c>
-      <c r="G45" t="s">
-        <v>341</v>
-      </c>
       <c r="H45">
-        <v>5117</v>
+        <v>5116</v>
       </c>
       <c r="I45" t="s">
         <v>105</v>
       </c>
       <c r="J45" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="K45" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O45" t="s">
         <v>60</v>
@@ -5336,10 +5315,10 @@
         <v>60</v>
       </c>
       <c r="Q45" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="R45" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="S45" t="s">
         <v>60</v>
@@ -5354,9 +5333,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B46" t="s">
         <v>160</v>
@@ -5365,31 +5344,31 @@
         <v>60</v>
       </c>
       <c r="D46" t="s">
+        <v>337</v>
+      </c>
+      <c r="E46" t="s">
+        <v>337</v>
+      </c>
+      <c r="F46" t="s">
+        <v>338</v>
+      </c>
+      <c r="G46" t="s">
         <v>339</v>
       </c>
-      <c r="E46" t="s">
-        <v>339</v>
-      </c>
-      <c r="F46" t="s">
-        <v>340</v>
-      </c>
-      <c r="G46" t="s">
-        <v>341</v>
-      </c>
       <c r="H46">
-        <v>5119</v>
+        <v>5117</v>
       </c>
       <c r="I46" t="s">
         <v>105</v>
       </c>
       <c r="J46" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="K46" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="L46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O46" t="s">
         <v>60</v>
@@ -5398,10 +5377,10 @@
         <v>60</v>
       </c>
       <c r="Q46" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="R46" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="S46" t="s">
         <v>60</v>
@@ -5416,9 +5395,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B47" t="s">
         <v>160</v>
@@ -5427,31 +5406,31 @@
         <v>60</v>
       </c>
       <c r="D47" t="s">
+        <v>337</v>
+      </c>
+      <c r="E47" t="s">
+        <v>337</v>
+      </c>
+      <c r="F47" t="s">
+        <v>338</v>
+      </c>
+      <c r="G47" t="s">
         <v>339</v>
       </c>
-      <c r="E47" t="s">
-        <v>339</v>
-      </c>
-      <c r="F47" t="s">
-        <v>340</v>
-      </c>
-      <c r="G47" t="s">
-        <v>341</v>
-      </c>
       <c r="H47">
-        <v>5002</v>
+        <v>5119</v>
       </c>
       <c r="I47" t="s">
         <v>105</v>
       </c>
       <c r="J47" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="K47" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="L47">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O47" t="s">
         <v>60</v>
@@ -5460,10 +5439,10 @@
         <v>60</v>
       </c>
       <c r="Q47" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="R47" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="S47" t="s">
         <v>60</v>
@@ -5478,9 +5457,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B48" t="s">
         <v>160</v>
@@ -5489,28 +5468,28 @@
         <v>60</v>
       </c>
       <c r="D48" t="s">
+        <v>337</v>
+      </c>
+      <c r="E48" t="s">
+        <v>337</v>
+      </c>
+      <c r="F48" t="s">
+        <v>338</v>
+      </c>
+      <c r="G48" t="s">
         <v>339</v>
       </c>
-      <c r="E48" t="s">
-        <v>339</v>
-      </c>
-      <c r="F48" t="s">
-        <v>340</v>
-      </c>
-      <c r="G48" t="s">
-        <v>341</v>
-      </c>
       <c r="H48">
-        <v>5004</v>
+        <v>5002</v>
       </c>
       <c r="I48" t="s">
         <v>105</v>
       </c>
       <c r="J48" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="K48" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="L48">
         <v>2</v>
@@ -5522,10 +5501,10 @@
         <v>60</v>
       </c>
       <c r="Q48" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="R48" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="S48" t="s">
         <v>60</v>
@@ -5540,9 +5519,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B49" t="s">
         <v>160</v>
@@ -5551,31 +5530,31 @@
         <v>60</v>
       </c>
       <c r="D49" t="s">
+        <v>337</v>
+      </c>
+      <c r="E49" t="s">
+        <v>337</v>
+      </c>
+      <c r="F49" t="s">
+        <v>338</v>
+      </c>
+      <c r="G49" t="s">
         <v>339</v>
       </c>
-      <c r="E49" t="s">
-        <v>339</v>
-      </c>
-      <c r="F49" t="s">
-        <v>340</v>
-      </c>
-      <c r="G49" t="s">
-        <v>341</v>
-      </c>
       <c r="H49">
-        <v>5003</v>
+        <v>5004</v>
       </c>
       <c r="I49" t="s">
         <v>105</v>
       </c>
       <c r="J49" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="K49" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O49" t="s">
         <v>60</v>
@@ -5584,10 +5563,10 @@
         <v>60</v>
       </c>
       <c r="Q49" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="R49" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="S49" t="s">
         <v>60</v>
@@ -5602,9 +5581,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B50" t="s">
         <v>160</v>
@@ -5613,31 +5592,31 @@
         <v>60</v>
       </c>
       <c r="D50" t="s">
+        <v>337</v>
+      </c>
+      <c r="E50" t="s">
+        <v>337</v>
+      </c>
+      <c r="F50" t="s">
+        <v>338</v>
+      </c>
+      <c r="G50" t="s">
         <v>339</v>
       </c>
-      <c r="E50" t="s">
-        <v>339</v>
-      </c>
-      <c r="F50" t="s">
-        <v>340</v>
-      </c>
-      <c r="G50" t="s">
-        <v>341</v>
-      </c>
       <c r="H50">
-        <v>5018</v>
+        <v>5003</v>
       </c>
       <c r="I50" t="s">
         <v>105</v>
       </c>
       <c r="J50" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="K50" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L50">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O50" t="s">
         <v>60</v>
@@ -5646,10 +5625,10 @@
         <v>60</v>
       </c>
       <c r="Q50" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="R50" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="S50" t="s">
         <v>60</v>
@@ -5664,9 +5643,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B51" t="s">
         <v>160</v>
@@ -5675,31 +5654,31 @@
         <v>60</v>
       </c>
       <c r="D51" t="s">
+        <v>337</v>
+      </c>
+      <c r="E51" t="s">
+        <v>337</v>
+      </c>
+      <c r="F51" t="s">
+        <v>338</v>
+      </c>
+      <c r="G51" t="s">
         <v>339</v>
       </c>
-      <c r="E51" t="s">
-        <v>339</v>
-      </c>
-      <c r="F51" t="s">
-        <v>340</v>
-      </c>
-      <c r="G51" t="s">
-        <v>341</v>
-      </c>
       <c r="H51">
-        <v>5015</v>
+        <v>5018</v>
       </c>
       <c r="I51" t="s">
         <v>105</v>
       </c>
       <c r="J51" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="K51" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="L51">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O51" t="s">
         <v>60</v>
@@ -5708,10 +5687,10 @@
         <v>60</v>
       </c>
       <c r="Q51" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="R51" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="S51" t="s">
         <v>60</v>
@@ -5726,9 +5705,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B52" t="s">
         <v>160</v>
@@ -5737,31 +5716,31 @@
         <v>60</v>
       </c>
       <c r="D52" t="s">
+        <v>337</v>
+      </c>
+      <c r="E52" t="s">
+        <v>337</v>
+      </c>
+      <c r="F52" t="s">
+        <v>338</v>
+      </c>
+      <c r="G52" t="s">
         <v>339</v>
       </c>
-      <c r="E52" t="s">
-        <v>339</v>
-      </c>
-      <c r="F52" t="s">
-        <v>340</v>
-      </c>
-      <c r="G52" t="s">
-        <v>341</v>
-      </c>
       <c r="H52">
-        <v>5001</v>
+        <v>5015</v>
       </c>
       <c r="I52" t="s">
         <v>105</v>
       </c>
       <c r="J52" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="K52" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O52" t="s">
         <v>60</v>
@@ -5770,10 +5749,10 @@
         <v>60</v>
       </c>
       <c r="Q52" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="R52" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="S52" t="s">
         <v>60</v>
@@ -5788,30 +5767,42 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B53" t="s">
         <v>160</v>
       </c>
       <c r="C53" t="s">
-        <v>370</v>
+        <v>60</v>
       </c>
       <c r="D53" t="s">
-        <v>371</v>
+        <v>337</v>
       </c>
       <c r="E53" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="F53" t="s">
-        <v>373</v>
+        <v>338</v>
+      </c>
+      <c r="G53" t="s">
+        <v>339</v>
+      </c>
+      <c r="H53">
+        <v>5001</v>
+      </c>
+      <c r="I53" t="s">
+        <v>105</v>
+      </c>
+      <c r="J53" t="s">
+        <v>365</v>
+      </c>
+      <c r="K53" t="s">
+        <v>366</v>
       </c>
       <c r="L53">
-        <v>1</v>
-      </c>
-      <c r="N53" s="7" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="O53" t="s">
         <v>60</v>
@@ -5820,7 +5811,10 @@
         <v>60</v>
       </c>
       <c r="Q53" t="s">
-        <v>194</v>
+        <v>192</v>
+      </c>
+      <c r="R53" t="s">
+        <v>342</v>
       </c>
       <c r="S53" t="s">
         <v>60</v>
@@ -5835,48 +5829,30 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B54" t="s">
         <v>160</v>
       </c>
       <c r="C54" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D54" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="E54" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F54" t="s">
-        <v>378</v>
-      </c>
-      <c r="G54" t="s">
-        <v>379</v>
-      </c>
-      <c r="H54" t="s">
-        <v>380</v>
-      </c>
-      <c r="I54" t="s">
-        <v>105</v>
-      </c>
-      <c r="J54" t="s">
-        <v>381</v>
-      </c>
-      <c r="K54" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="L54">
         <v>1</v>
       </c>
-      <c r="M54" s="7">
-        <v>1.18</v>
-      </c>
-      <c r="N54" s="7">
-        <v>1.18</v>
+      <c r="N54" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="O54" t="s">
         <v>60</v>
@@ -5885,10 +5861,7 @@
         <v>60</v>
       </c>
       <c r="Q54" t="s">
-        <v>168</v>
-      </c>
-      <c r="R54" t="s">
-        <v>383</v>
+        <v>192</v>
       </c>
       <c r="S54" t="s">
         <v>60</v>
@@ -5896,89 +5869,158 @@
       <c r="T54" t="s">
         <v>60</v>
       </c>
+      <c r="U54" t="s">
+        <v>60</v>
+      </c>
+      <c r="V54" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="B55" t="s">
         <v>160</v>
       </c>
       <c r="C55" t="s">
+        <v>373</v>
+      </c>
+      <c r="D55" t="s">
+        <v>374</v>
+      </c>
+      <c r="E55" t="s">
+        <v>375</v>
+      </c>
+      <c r="F55" t="s">
+        <v>376</v>
+      </c>
+      <c r="G55" t="s">
+        <v>377</v>
+      </c>
+      <c r="H55" t="s">
+        <v>378</v>
+      </c>
+      <c r="I55" t="s">
+        <v>105</v>
+      </c>
+      <c r="J55" t="s">
+        <v>379</v>
+      </c>
+      <c r="K55" t="s">
+        <v>380</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55" s="7">
+        <v>1.18</v>
+      </c>
+      <c r="N55" s="7">
+        <v>1.18</v>
+      </c>
+      <c r="O55" t="s">
+        <v>60</v>
+      </c>
+      <c r="P55" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>168</v>
+      </c>
+      <c r="R55" t="s">
+        <v>381</v>
+      </c>
+      <c r="S55" t="s">
+        <v>60</v>
+      </c>
+      <c r="T55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B56" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" t="s">
+        <v>385</v>
+      </c>
+      <c r="D56" t="s">
+        <v>386</v>
+      </c>
+      <c r="E56" t="s">
         <v>387</v>
       </c>
-      <c r="D55" t="s">
+      <c r="F56" t="s">
         <v>388</v>
       </c>
-      <c r="E55" t="s">
+      <c r="G56" t="s">
         <v>389</v>
       </c>
-      <c r="F55" t="s">
+      <c r="H56" t="s">
+        <v>384</v>
+      </c>
+      <c r="I56" t="s">
+        <v>28</v>
+      </c>
+      <c r="J56" t="s">
         <v>390</v>
       </c>
-      <c r="G55" t="s">
-        <v>391</v>
-      </c>
-      <c r="H55" t="s">
-        <v>386</v>
-      </c>
-      <c r="I55" t="s">
-        <v>28</v>
-      </c>
-      <c r="J55" t="s">
-        <v>392</v>
-      </c>
-      <c r="K55" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="L55">
+      <c r="K56" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="L56">
         <v>3</v>
       </c>
-      <c r="M55" s="7">
+      <c r="M56" s="7">
         <v>0.34</v>
       </c>
-      <c r="N55" s="7">
+      <c r="N56" s="7">
         <f>Table1[[#This Row],[Unit Cost]]*Table1[[#This Row],[Qty]]</f>
         <v>1.02</v>
       </c>
-      <c r="O55" t="s">
-        <v>60</v>
-      </c>
-      <c r="P55" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q55" t="s">
+      <c r="O56" t="s">
+        <v>60</v>
+      </c>
+      <c r="P56" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q56" t="s">
         <v>168</v>
       </c>
-      <c r="R55" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="S55" t="s">
-        <v>60</v>
-      </c>
-      <c r="T55" t="s">
-        <v>60</v>
-      </c>
-      <c r="U55" t="s">
-        <v>60</v>
-      </c>
-      <c r="V55" t="s">
+      <c r="R56" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="S56" t="s">
+        <v>60</v>
+      </c>
+      <c r="T56" t="s">
+        <v>60</v>
+      </c>
+      <c r="U56" t="s">
+        <v>60</v>
+      </c>
+      <c r="V56" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="R55" r:id="rId1" display="https://www.belfuse.com/resources/datasheets/circuitprotection/ds-cp-0679h-series.pdf" xr:uid="{904A5264-1636-4A90-BFDD-1E43FB524263}"/>
+    <hyperlink ref="R56" r:id="rId1" display="https://www.belfuse.com/resources/datasheets/circuitprotection/ds-cp-0679h-series.pdf" xr:uid="{904A5264-1636-4A90-BFDD-1E43FB524263}"/>
     <hyperlink ref="K5" r:id="rId2" xr:uid="{E8EB1093-9062-427A-ADCB-31C35BAE4BCC}"/>
     <hyperlink ref="R5" r:id="rId3" xr:uid="{9962DA3D-B288-4FFC-84AD-7E245D632CB8}"/>
-    <hyperlink ref="K31" r:id="rId4" xr:uid="{053D531B-9148-411A-A634-ACE84B895D77}"/>
+    <hyperlink ref="K32" r:id="rId4" xr:uid="{053D531B-9148-411A-A634-ACE84B895D77}"/>
     <hyperlink ref="K18" r:id="rId5" xr:uid="{78C35CAF-EE6A-4218-AF5D-6CA1B3D183E3}"/>
-    <hyperlink ref="K37" r:id="rId6" xr:uid="{39DF72DE-E1D5-4347-AEBB-CFDB92FA2962}"/>
+    <hyperlink ref="K38" r:id="rId6" xr:uid="{39DF72DE-E1D5-4347-AEBB-CFDB92FA2962}"/>
+    <hyperlink ref="K17" r:id="rId7" xr:uid="{FBC32342-5870-4F9E-9D3B-8B9A73ACA17C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>